--- a/CashFlow/WSM_cashflow.xlsx
+++ b/CashFlow/WSM_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4244000000.0</v>
+        <v>99144000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>4339000000.0</v>
+        <v>134866000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3143939000.0</v>
+        <v>147850000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2069823000.0</v>
+        <v>84192000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>967363000.0</v>
+        <v>24219000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-60245000.0</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>25489000.0</v>
+        <v>1901000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>135329000.0</v>
+        <v>1879000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-54023000.0</v>
+        <v>1323529000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>13227000.0</v>
+        <v>969048000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>56902000.0</v>
+        <v>496852000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>2826000.0</v>
